--- a/out.xlsx
+++ b/out.xlsx
@@ -348,163 +348,163 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -348,163 +350,511 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="F1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
       <c r="G1">
-        <v>15</v>
+        <v>14.03275094201192</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14.26380320161546</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>15.17171140250826</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>15.92174893182267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>15.82433474408231</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14.96903099424712</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>14.14220000548024</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>14.14220000548024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="B1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="C1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="D1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="E1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="F1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="G1">
+        <v>14.03275094201192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="B2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="C2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="D2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="E2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="F2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="G2">
+        <v>14.26380320161546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="B3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="C3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="D3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="E3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="F3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="G3">
+        <v>15.17171140250826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="B4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="C4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="D4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="E4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="F4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="G4">
+        <v>15.92174893182267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="B5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="C5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="D5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="E5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="F5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="G5">
+        <v>15.82433474408231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="B6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="C6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="D6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="E6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="F6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="G6">
+        <v>14.96903099424712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="B7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="C7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="D7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="E7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="F7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="G7">
+        <v>14.14220000548024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="B1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="C1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="D1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="E1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="F1">
+        <v>14.03275094201192</v>
+      </c>
+      <c r="G1">
+        <v>14.03275094201192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="B2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="C2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="D2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="E2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="F2">
+        <v>14.26380320161546</v>
+      </c>
+      <c r="G2">
+        <v>14.26380320161546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="B3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="C3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="D3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="E3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="F3">
+        <v>15.17171140250826</v>
+      </c>
+      <c r="G3">
+        <v>15.17171140250826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="B4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="C4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="D4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="E4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="F4">
+        <v>15.92174893182267</v>
+      </c>
+      <c r="G4">
+        <v>15.92174893182267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="B5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="C5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="D5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="E5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="F5">
+        <v>15.82433474408231</v>
+      </c>
+      <c r="G5">
+        <v>15.82433474408231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="B6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="C6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="D6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="E6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="F6">
+        <v>14.96903099424712</v>
+      </c>
+      <c r="G6">
+        <v>14.96903099424712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="B7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="C7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="D7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="E7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="F7">
+        <v>14.14220000548024</v>
+      </c>
+      <c r="G7">
+        <v>14.14220000548024</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -350,163 +350,163 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="B1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="C1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="D1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="E1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="F1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="G1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="B2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="C2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="D2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="E2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="F2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="G2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="B3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="C3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="D3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="E3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="F3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="G3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="B4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="C4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="D4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="E4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="F4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="G4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="B5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="C5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="D5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="E5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="F5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="G5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="B6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="C6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="D6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="E6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="F6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="G6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="B7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="C7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="D7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="E7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="F7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="G7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
     </row>
   </sheetData>
@@ -524,163 +524,163 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="B1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="C1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="D1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="E1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="F1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="G1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="B2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="C2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="D2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="E2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="F2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="G2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="B3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="C3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="D3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="E3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="F3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="G3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="B4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="C4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="D4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="E4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="F4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="G4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="B5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="C5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="D5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="E5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="F5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="G5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="B6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="C6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="D6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="E6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="F6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="G6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="B7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="C7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="D7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="E7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="F7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="G7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
     </row>
   </sheetData>
@@ -698,163 +698,163 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="B1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="C1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="D1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="E1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="F1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
       <c r="G1">
-        <v>14.03275094201192</v>
+        <v>10.16375471005962</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="B2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="C2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="D2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="E2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="F2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
       <c r="G2">
-        <v>14.26380320161546</v>
+        <v>11.3190160080773</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="B3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="C3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="D3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="E3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="F3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
       <c r="G3">
-        <v>15.17171140250826</v>
+        <v>15.85855701254129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="B4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="C4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="D4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="E4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="F4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
       <c r="G4">
-        <v>15.92174893182267</v>
+        <v>19.60874465911334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="B5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="C5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="D5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="E5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="F5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
       <c r="G5">
-        <v>15.82433474408231</v>
+        <v>19.12167372041153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="B6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="C6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="D6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="E6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="F6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
       <c r="G6">
-        <v>14.96903099424712</v>
+        <v>14.84515497123559</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="B7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="C7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="D7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="E7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="F7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
       <c r="G7">
-        <v>14.14220000548024</v>
+        <v>10.71100002740121</v>
       </c>
     </row>
   </sheetData>
